--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPM_MANMEC.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPM_MANMEC.XLSX
@@ -210,9 +210,6 @@
     <t>DANIEL DA SILVA ARAUJO</t>
   </si>
   <si>
-    <t>EDSON KAZUYUKI TIBA</t>
-  </si>
-  <si>
     <t>JEAN DE PAULA L. DIVINO</t>
   </si>
   <si>
@@ -240,6 +237,9 @@
     <t> </t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
     <t>1894</t>
   </si>
   <si>
@@ -300,9 +300,6 @@
     <t>3528</t>
   </si>
   <si>
-    <t>3610</t>
-  </si>
-  <si>
     <t>4131</t>
   </si>
   <si>
@@ -313,6 +310,9 @@
   </si>
   <si>
     <t>4178</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t> </t>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPM_MANMEC.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPM_MANMEC.XLSX
@@ -210,18 +210,6 @@
     <t>DANIEL DA SILVA ARAUJO</t>
   </si>
   <si>
-    <t>JEAN DE PAULA L. DIVINO</t>
-  </si>
-  <si>
-    <t>THIAGO LUCENA DOS SANTOS</t>
-  </si>
-  <si>
-    <t>LUCAS OLIVEIRA NUNES DA SILVA</t>
-  </si>
-  <si>
-    <t>JANILSO FIRMINO DE S JUNIOR</t>
-  </si>
-  <si>
     <t> </t>
   </si>
   <si>
@@ -240,6 +228,18 @@
     <t> </t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
     <t>1894</t>
   </si>
   <si>
@@ -300,16 +300,16 @@
     <t>3528</t>
   </si>
   <si>
-    <t>4131</t>
-  </si>
-  <si>
-    <t>4145</t>
-  </si>
-  <si>
-    <t>4167</t>
-  </si>
-  <si>
-    <t>4178</t>
+    <t> </t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t> </t>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPM_MANMEC.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPM_MANMEC.XLSX
@@ -210,6 +210,9 @@
     <t>DANIEL DA SILVA ARAUJO</t>
   </si>
   <si>
+    <t>LUCIANO DA SILVA SILVEIRA</t>
+  </si>
+  <si>
     <t> </t>
   </si>
   <si>
@@ -237,9 +240,6 @@
     <t> </t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
     <t>1894</t>
   </si>
   <si>
@@ -300,7 +300,7 @@
     <t>3528</t>
   </si>
   <si>
-    <t> </t>
+    <t>3687</t>
   </si>
   <si>
     <t> </t>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPM_MANMEC.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPM_MANMEC.XLSX
@@ -159,9 +159,6 @@
     <t>ALEXANDRE DA SILVA COELHO</t>
   </si>
   <si>
-    <t>HERMES DE AZEVEDO</t>
-  </si>
-  <si>
     <t>MICHAEL DA SILVA R. RODRIGUES</t>
   </si>
   <si>
@@ -240,6 +237,9 @@
     <t> </t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
     <t>1894</t>
   </si>
   <si>
@@ -249,9 +249,6 @@
     <t>2667</t>
   </si>
   <si>
-    <t>2826</t>
-  </si>
-  <si>
     <t>2935</t>
   </si>
   <si>
@@ -301,6 +298,9 @@
   </si>
   <si>
     <t>3687</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t> </t>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPM_MANMEC.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPM_MANMEC.XLSX
@@ -198,9 +198,6 @@
     <t>LUIS ANTONIO S.MENDES DA SILVA</t>
   </si>
   <si>
-    <t>LUIS ANDRE MELO PINTO</t>
-  </si>
-  <si>
     <t>HELIO MACHADO MARCELINO</t>
   </si>
   <si>
@@ -240,6 +237,9 @@
     <t> </t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
     <t>1894</t>
   </si>
   <si>
@@ -288,9 +288,6 @@
     <t>3430</t>
   </si>
   <si>
-    <t>3450</t>
-  </si>
-  <si>
     <t>3454</t>
   </si>
   <si>
@@ -298,6 +295,9 @@
   </si>
   <si>
     <t>3687</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t> </t>
